--- a/dados_fabrica.xlsx
+++ b/dados_fabrica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18a107d706eaeeec/Área de Trabalho/TRABALHO/SOFTWARE_PRODUTIVIDADE_IQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{703EC791-5936-4DA6-BE1E-AC6CF9759E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78C9C65-15CA-42C0-B54A-851553944153}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{703EC791-5936-4DA6-BE1E-AC6CF9759E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67BE09AA-7658-488D-AE58-C25D976C03C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{71058BFD-E306-4D0F-AD92-A1F7A24A966B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71058BFD-E306-4D0F-AD92-A1F7A24A966B}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiais" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Densidade</t>
   </si>
@@ -73,6 +73,87 @@
   </si>
   <si>
     <t>Material_Usado</t>
+  </si>
+  <si>
+    <t>Dióxido de Titânio</t>
+  </si>
+  <si>
+    <t>13463-67-7</t>
+  </si>
+  <si>
+    <t>irritante</t>
+  </si>
+  <si>
+    <t>Acetato de Etila</t>
+  </si>
+  <si>
+    <t>141-78-6</t>
+  </si>
+  <si>
+    <t>Xileno</t>
+  </si>
+  <si>
+    <t>1330-20-7</t>
+  </si>
+  <si>
+    <t>nocivo/inflamável</t>
+  </si>
+  <si>
+    <t>Carbonato de Cálcio</t>
+  </si>
+  <si>
+    <t>471-34-1</t>
+  </si>
+  <si>
+    <t>nenhum</t>
+  </si>
+  <si>
+    <t>Resina Epóxi</t>
+  </si>
+  <si>
+    <t>25068-38-6</t>
+  </si>
+  <si>
+    <t>irritante/sensibilizante</t>
+  </si>
+  <si>
+    <t>Etanol 96%</t>
+  </si>
+  <si>
+    <t>64-17-5</t>
+  </si>
+  <si>
+    <t>Pigmento Azul Ftalo</t>
+  </si>
+  <si>
+    <t>147-14-8</t>
+  </si>
+  <si>
+    <t>Talco Industrial</t>
+  </si>
+  <si>
+    <t>14807-96-6</t>
+  </si>
+  <si>
+    <t>inalação perigosa</t>
+  </si>
+  <si>
+    <t>Aditivo Antiespumante</t>
+  </si>
+  <si>
+    <t>63148-62-9</t>
+  </si>
+  <si>
+    <t>Tinta Azul Industrial</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Primer Branco Epóxi</t>
+  </si>
+  <si>
+    <t>Solução de Limpeza</t>
   </si>
 </sst>
 </file>
@@ -108,12 +189,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,6 +213,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025BB9CC-FAB7-4009-ACE4-BFE451FDB1C7}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,17 +585,171 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>18.2</v>
+      </c>
+      <c r="C3">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>8.9</v>
+      </c>
+      <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>6.5</v>
+      </c>
+      <c r="C5">
+        <v>0.86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2.1</v>
+      </c>
+      <c r="C6">
+        <v>2.71</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>4.8</v>
+      </c>
+      <c r="C8">
+        <v>0.81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>1.6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>2.75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>32.5</v>
+      </c>
+      <c r="C11">
+        <v>0.98</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35109956-CB83-4559-AD69-01ED527E5BB7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,6 +781,116 @@
         <v>50</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
